--- a/Modelos/Microssimulação/output/Resultados da microssimulação.xlsx
+++ b/Modelos/Microssimulação/output/Resultados da microssimulação.xlsx
@@ -8,12 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Universidade\UFPR\- Dissertação\Modelos\Microssimulação\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C381D9A6-7FA9-46FC-B8EB-F15AEB030AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E72F3CF-CEB2-4800-BB1F-7B602C09DE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Resultados (simulação 01)" sheetId="1" r:id="rId1"/>
+    <sheet name="Resultados (-05%)" sheetId="6" r:id="rId1"/>
+    <sheet name="Resultados (-10%)" sheetId="1" r:id="rId2"/>
+    <sheet name="Resultados (-15%)" sheetId="4" r:id="rId3"/>
+    <sheet name="Resultados (-20%)" sheetId="5" r:id="rId4"/>
+    <sheet name="Resultados (-25%)" sheetId="2" r:id="rId5"/>
+    <sheet name="Resultados (-50%)" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="11">
   <si>
     <t>fgt0_ext</t>
   </si>
@@ -72,8 +77,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -198,22 +204,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -221,6 +215,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -518,7 +536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24190143-6A29-47E6-9B21-589F0AD9D71D}">
   <dimension ref="A2:J18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
@@ -535,28 +553,28 @@
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="8" t="s">
+      <c r="D3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -564,25 +582,25 @@
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="6">
         <v>0.10600778722835</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="6">
         <v>0.39125233533134202</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="6">
         <v>5.0160296250132998E-2</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="6">
         <v>0.179430765748057</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="6">
         <v>3.2061932760514798E-2</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="6">
         <v>0.111426561601317</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="7">
         <v>0.45715088202534598</v>
       </c>
     </row>
@@ -590,51 +608,51 @@
       <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="6">
         <v>5.2073744664676E-2</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="6">
         <v>0.19483502232059799</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="6">
         <v>3.0039374689086702E-2</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="6">
         <v>8.3996188890882797E-2</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="6">
         <v>2.2051261641869099E-2</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="6">
         <v>5.3876463160478102E-2</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="7">
         <v>0.44242083929020898</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="4">
-        <v>3</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="8">
         <v>3.9320712075634701E-2</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="8">
         <v>8.1646489342246706E-2</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="8">
         <v>2.73970238343017E-2</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="8">
         <v>4.74395871948914E-2</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="8">
         <v>2.3057748025640298E-2</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="8">
         <v>3.6975167938994698E-2</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="9">
         <v>0.48745753412098097</v>
       </c>
     </row>
@@ -644,28 +662,28 @@
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="8" t="s">
+      <c r="D9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -673,78 +691,78 @@
       <c r="B10" s="1">
         <v>1</v>
       </c>
-      <c r="C10" s="2">
-        <v>0.106114399696769</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.39156813502006199</v>
-      </c>
-      <c r="E10" s="2">
-        <v>5.0175741660291602E-2</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0.179596525874711</v>
-      </c>
-      <c r="G10" s="2">
-        <v>3.2068856286635798E-2</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.111513885959589</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0.45704913502876998</v>
+      <c r="C10" s="10">
+        <v>0.10600778722835</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.39134192262849199</v>
+      </c>
+      <c r="E10" s="10">
+        <v>5.0162175188007897E-2</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.17945186297355301</v>
+      </c>
+      <c r="G10" s="10">
+        <v>3.2062804351453297E-2</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0.111437417262175</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0.457127428168082</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>2</v>
       </c>
-      <c r="C11" s="2">
-        <v>5.2084772486138999E-2</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.19503300930582901</v>
-      </c>
-      <c r="E11" s="2">
-        <v>3.0046014531732598E-2</v>
-      </c>
-      <c r="F11" s="2">
-        <v>8.4100748815846504E-2</v>
-      </c>
-      <c r="G11" s="2">
-        <v>2.2055516206600598E-2</v>
-      </c>
-      <c r="H11" s="2">
-        <v>5.3922565781942801E-2</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0.442367542784872</v>
+      <c r="C11" s="10">
+        <v>5.2073744664676E-2</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0.19489003013634601</v>
+      </c>
+      <c r="E11" s="10">
+        <v>3.0040419325516099E-2</v>
+      </c>
+      <c r="F11" s="10">
+        <v>8.4012476539495798E-2</v>
+      </c>
+      <c r="G11" s="10">
+        <v>2.2051956632513098E-2</v>
+      </c>
+      <c r="H11" s="10">
+        <v>5.3883530414414703E-2</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0.44240486343834501</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="4">
-        <v>3</v>
-      </c>
-      <c r="C12" s="5">
+      <c r="B12" s="2">
+        <v>3</v>
+      </c>
+      <c r="C12" s="12">
         <v>3.9320712075634701E-2</v>
       </c>
-      <c r="D12" s="5">
-        <v>8.1773130873701499E-2</v>
-      </c>
-      <c r="E12" s="5">
-        <v>2.74034539594111E-2</v>
-      </c>
-      <c r="F12" s="5">
-        <v>4.7471092155282897E-2</v>
-      </c>
-      <c r="G12" s="5">
-        <v>2.30620944386382E-2</v>
-      </c>
-      <c r="H12" s="5">
-        <v>3.6991519499002201E-2</v>
-      </c>
-      <c r="I12" s="6">
-        <v>0.48740533868875502</v>
+      <c r="D12" s="12">
+        <v>8.1678112813650797E-2</v>
+      </c>
+      <c r="E12" s="12">
+        <v>2.7398286823562702E-2</v>
+      </c>
+      <c r="F12" s="12">
+        <v>4.7445142279253297E-2</v>
+      </c>
+      <c r="G12" s="12">
+        <v>2.30586149036528E-2</v>
+      </c>
+      <c r="H12" s="12">
+        <v>3.6978111257093597E-2</v>
+      </c>
+      <c r="I12" s="13">
+        <v>0.48744211887741201</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
@@ -753,28 +771,28 @@
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="8" t="s">
+      <c r="D15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -782,31 +800,397 @@
       <c r="B16" s="1">
         <v>1</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="10">
+        <f>(C10-C4)/C4*100</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="10">
+        <f t="shared" ref="D16:I16" si="0">(D10-D4)/D4*100</f>
+        <v>2.2897575058332648E-2</v>
+      </c>
+      <c r="E16" s="10">
+        <f t="shared" si="0"/>
+        <v>3.7458667818266417E-3</v>
+      </c>
+      <c r="F16" s="10">
+        <f t="shared" si="0"/>
+        <v>1.1757864047479779E-2</v>
+      </c>
+      <c r="G16" s="10">
+        <f t="shared" si="0"/>
+        <v>2.7184603779483421E-3</v>
+      </c>
+      <c r="H16" s="10">
+        <f t="shared" si="0"/>
+        <v>9.7424354678005941E-3</v>
+      </c>
+      <c r="I16" s="11">
+        <f t="shared" si="0"/>
+        <v>-5.1304412145240638E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="10">
+        <f t="shared" ref="C17:I18" si="1">(C11-C5)/C5*100</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="10">
+        <f t="shared" si="1"/>
+        <v>2.8233022529956645E-2</v>
+      </c>
+      <c r="E17" s="10">
+        <f t="shared" si="1"/>
+        <v>3.4775571735750485E-3</v>
+      </c>
+      <c r="F17" s="10">
+        <f t="shared" si="1"/>
+        <v>1.9390937646182028E-2</v>
+      </c>
+      <c r="G17" s="10">
+        <f t="shared" si="1"/>
+        <v>3.1517046747124417E-3</v>
+      </c>
+      <c r="H17" s="10">
+        <f t="shared" si="1"/>
+        <v>1.311751648498095E-2</v>
+      </c>
+      <c r="I17" s="11">
+        <f t="shared" si="1"/>
+        <v>-3.6110079917574108E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="2">
+        <v>3</v>
+      </c>
+      <c r="C18" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="12">
+        <f t="shared" si="1"/>
+        <v>3.8732187579469821E-2</v>
+      </c>
+      <c r="E18" s="12">
+        <f t="shared" si="1"/>
+        <v>4.6099505867498204E-3</v>
+      </c>
+      <c r="F18" s="12">
+        <f t="shared" si="1"/>
+        <v>1.1709807547598107E-2</v>
+      </c>
+      <c r="G18" s="12">
+        <f t="shared" si="1"/>
+        <v>3.7595953062618368E-3</v>
+      </c>
+      <c r="H18" s="12">
+        <f t="shared" si="1"/>
+        <v>7.960256201556333E-3</v>
+      </c>
+      <c r="I18" s="13">
+        <f t="shared" si="1"/>
+        <v>-3.1623767179554002E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:J18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="10" width="11.5546875" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.10600778722835</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.39125233533134202</v>
+      </c>
+      <c r="E4" s="6">
+        <v>5.0160296250132998E-2</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.179430765748057</v>
+      </c>
+      <c r="G4" s="6">
+        <v>3.2061932760514798E-2</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0.111426561601317</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.45715088202534598</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6">
+        <v>5.2073744664676E-2</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.19483502232059799</v>
+      </c>
+      <c r="E5" s="6">
+        <v>3.0039374689086702E-2</v>
+      </c>
+      <c r="F5" s="6">
+        <v>8.3996188890882797E-2</v>
+      </c>
+      <c r="G5" s="6">
+        <v>2.2051261641869099E-2</v>
+      </c>
+      <c r="H5" s="6">
+        <v>5.3876463160478102E-2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0.44242083929020898</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="8">
+        <v>3.9320712075634701E-2</v>
+      </c>
+      <c r="D6" s="8">
+        <v>8.1646489342246706E-2</v>
+      </c>
+      <c r="E6" s="8">
+        <v>2.73970238343017E-2</v>
+      </c>
+      <c r="F6" s="8">
+        <v>4.74395871948914E-2</v>
+      </c>
+      <c r="G6" s="8">
+        <v>2.3057748025640298E-2</v>
+      </c>
+      <c r="H6" s="8">
+        <v>3.6975167938994698E-2</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0.48745753412098097</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0.106114399696769</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.39156813502006199</v>
+      </c>
+      <c r="E10" s="10">
+        <v>5.0175741660291602E-2</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.179596525874711</v>
+      </c>
+      <c r="G10" s="10">
+        <v>3.2068856286635798E-2</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0.111513885959589</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0.45704913502876998</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="10">
+        <v>5.2084772486138999E-2</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0.19503300930582901</v>
+      </c>
+      <c r="E11" s="10">
+        <v>3.0046014531732598E-2</v>
+      </c>
+      <c r="F11" s="10">
+        <v>8.4100748815846504E-2</v>
+      </c>
+      <c r="G11" s="10">
+        <v>2.2055516206600598E-2</v>
+      </c>
+      <c r="H11" s="10">
+        <v>5.3922565781942801E-2</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0.442367542784872</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <v>3</v>
+      </c>
+      <c r="C12" s="12">
+        <v>3.9320712075634701E-2</v>
+      </c>
+      <c r="D12" s="12">
+        <v>8.1773130873701499E-2</v>
+      </c>
+      <c r="E12" s="12">
+        <v>2.74034539594111E-2</v>
+      </c>
+      <c r="F12" s="12">
+        <v>4.7471092155282897E-2</v>
+      </c>
+      <c r="G12" s="12">
+        <v>2.30620944386382E-2</v>
+      </c>
+      <c r="H12" s="12">
+        <v>3.6991519499002201E-2</v>
+      </c>
+      <c r="I12" s="13">
+        <v>0.48740533868875502</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="10">
         <f>(C10-C4)/C4*100</f>
         <v>0.10057041204845775</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="10">
         <f t="shared" ref="D16:I16" si="0">(D10-D4)/D4*100</f>
         <v>8.071509361152629E-2</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="10">
         <f t="shared" si="0"/>
         <v>3.0792103143855321E-2</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="10">
         <f t="shared" si="0"/>
         <v>9.2381106418926717E-2</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="10">
         <f t="shared" si="0"/>
         <v>2.1594225690368903E-2</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="10">
         <f t="shared" si="0"/>
         <v>7.836942737624869E-2</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="11">
         <f t="shared" si="0"/>
         <v>-2.2256764796170919E-2</v>
       </c>
@@ -815,66 +1199,1530 @@
       <c r="B17" s="1">
         <v>2</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="10">
         <f t="shared" ref="C17:I17" si="1">(C11-C5)/C5*100</f>
         <v>2.1177316004468663E-2</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="10">
         <f t="shared" si="1"/>
         <v>0.10161775992471953</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="10">
         <f t="shared" si="1"/>
         <v>2.2103797814103678E-2</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="10">
         <f t="shared" si="1"/>
         <v>0.1244817489273685</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="10">
         <f t="shared" si="1"/>
         <v>1.9293974197928013E-2</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="10">
         <f t="shared" si="1"/>
         <v>8.5570987329616835E-2</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="11">
         <f t="shared" si="1"/>
         <v>-1.2046563046731787E-2</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="4">
-        <v>3</v>
-      </c>
-      <c r="C18" s="5">
+      <c r="B18" s="2">
+        <v>3</v>
+      </c>
+      <c r="C18" s="12">
         <f t="shared" ref="C18:I18" si="2">(C12-C6)/C6*100</f>
         <v>0</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="12">
         <f t="shared" si="2"/>
         <v>0.15510958581934389</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="12">
         <f t="shared" si="2"/>
         <v>2.3470159197911067E-2</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="12">
         <f t="shared" si="2"/>
         <v>6.641069675009692E-2</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="12">
         <f t="shared" si="2"/>
         <v>1.885011924438082E-2</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="12">
         <f t="shared" si="2"/>
         <v>4.4223085164837805E-2</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="13">
         <f t="shared" si="2"/>
         <v>-1.0707688069705798E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6CFDF79-40A4-41EC-A887-06E08F77D702}">
+  <dimension ref="A2:J18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="10" width="11.5546875" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.10600778722835</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.39125233533134202</v>
+      </c>
+      <c r="E4" s="6">
+        <v>5.0160296250132998E-2</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.179430765748057</v>
+      </c>
+      <c r="G4" s="6">
+        <v>3.2061932760514798E-2</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0.111426561601317</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.45715088202534598</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6">
+        <v>5.2073744664676E-2</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.19483502232059799</v>
+      </c>
+      <c r="E5" s="6">
+        <v>3.0039374689086702E-2</v>
+      </c>
+      <c r="F5" s="6">
+        <v>8.3996188890882797E-2</v>
+      </c>
+      <c r="G5" s="6">
+        <v>2.2051261641869099E-2</v>
+      </c>
+      <c r="H5" s="6">
+        <v>5.3876463160478102E-2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0.44242083929020898</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="8">
+        <v>3.9320712075634701E-2</v>
+      </c>
+      <c r="D6" s="8">
+        <v>8.1646489342246706E-2</v>
+      </c>
+      <c r="E6" s="8">
+        <v>2.73970238343017E-2</v>
+      </c>
+      <c r="F6" s="8">
+        <v>4.74395871948914E-2</v>
+      </c>
+      <c r="G6" s="8">
+        <v>2.3057748025640298E-2</v>
+      </c>
+      <c r="H6" s="8">
+        <v>3.6975167938994698E-2</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0.48745753412098097</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0.106041930724568</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.39138892155599903</v>
+      </c>
+      <c r="E10" s="10">
+        <v>5.0165949318375702E-2</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.17949425089402499</v>
+      </c>
+      <c r="G10" s="10">
+        <v>3.20645556416123E-2</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0.11145923137481201</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0.45708035416582599</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="10">
+        <v>5.2084772486138999E-2</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0.194945062430743</v>
+      </c>
+      <c r="E11" s="10">
+        <v>3.0042520557458999E-2</v>
+      </c>
+      <c r="F11" s="10">
+        <v>8.40451861274982E-2</v>
+      </c>
+      <c r="G11" s="10">
+        <v>2.2053352436719201E-2</v>
+      </c>
+      <c r="H11" s="10">
+        <v>5.3897732881703603E-2</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0.44237280725969502</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <v>3</v>
+      </c>
+      <c r="C12" s="12">
+        <v>3.9320712075634701E-2</v>
+      </c>
+      <c r="D12" s="12">
+        <v>8.1678112813650797E-2</v>
+      </c>
+      <c r="E12" s="12">
+        <v>2.7400822041184901E-2</v>
+      </c>
+      <c r="F12" s="12">
+        <v>4.7456313350820602E-2</v>
+      </c>
+      <c r="G12" s="12">
+        <v>2.3060357589842598E-2</v>
+      </c>
+      <c r="H12" s="12">
+        <v>3.6984027951496599E-2</v>
+      </c>
+      <c r="I12" s="13">
+        <v>0.48741122025361699</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="10">
+        <f>(C10-C4)/C4*100</f>
+        <v>3.2208479311476954E-2</v>
+      </c>
+      <c r="D16" s="10">
+        <f t="shared" ref="D16:I16" si="0">(D10-D4)/D4*100</f>
+        <v>3.4910008790449212E-2</v>
+      </c>
+      <c r="E16" s="10">
+        <f t="shared" si="0"/>
+        <v>1.1270005692379582E-2</v>
+      </c>
+      <c r="F16" s="10">
+        <f t="shared" si="0"/>
+        <v>3.538141617092061E-2</v>
+      </c>
+      <c r="G16" s="10">
+        <f t="shared" si="0"/>
+        <v>8.1806705699645314E-3</v>
+      </c>
+      <c r="H16" s="10">
+        <f t="shared" si="0"/>
+        <v>2.9319556329751341E-2</v>
+      </c>
+      <c r="I16" s="11">
+        <f t="shared" si="0"/>
+        <v>-1.5427698445540202E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="10">
+        <f t="shared" ref="C17:I18" si="1">(C11-C5)/C5*100</f>
+        <v>2.1177316004468663E-2</v>
+      </c>
+      <c r="D17" s="10">
+        <f t="shared" si="1"/>
+        <v>5.6478608842685706E-2</v>
+      </c>
+      <c r="E17" s="10">
+        <f t="shared" si="1"/>
+        <v>1.0472482882408702E-2</v>
+      </c>
+      <c r="F17" s="10">
+        <f t="shared" si="1"/>
+        <v>5.8332690164138154E-2</v>
+      </c>
+      <c r="G17" s="10">
+        <f t="shared" si="1"/>
+        <v>9.4815203050890636E-3</v>
+      </c>
+      <c r="H17" s="10">
+        <f t="shared" si="1"/>
+        <v>3.9478688796155112E-2</v>
+      </c>
+      <c r="I17" s="11">
+        <f t="shared" si="1"/>
+        <v>-1.0856638351623609E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="2">
+        <v>3</v>
+      </c>
+      <c r="C18" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="12">
+        <f t="shared" si="1"/>
+        <v>3.8732187579469821E-2</v>
+      </c>
+      <c r="E18" s="12">
+        <f t="shared" si="1"/>
+        <v>1.3863574766998605E-2</v>
+      </c>
+      <c r="F18" s="12">
+        <f t="shared" si="1"/>
+        <v>3.525780243509985E-2</v>
+      </c>
+      <c r="G18" s="12">
+        <f t="shared" si="1"/>
+        <v>1.1317515480688996E-2</v>
+      </c>
+      <c r="H18" s="12">
+        <f t="shared" si="1"/>
+        <v>2.396206155579832E-2</v>
+      </c>
+      <c r="I18" s="13">
+        <f t="shared" si="1"/>
+        <v>-9.501108121653102E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A6AEC8-FE15-4A93-AA18-6228C6562E70}">
+  <dimension ref="A2:J18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="10" width="11.5546875" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.10600778722835</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.39125233533134202</v>
+      </c>
+      <c r="E4" s="6">
+        <v>5.0160296250132998E-2</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.179430765748057</v>
+      </c>
+      <c r="G4" s="6">
+        <v>3.2061932760514798E-2</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0.111426561601317</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.45715088202534598</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6">
+        <v>5.2073744664676E-2</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.19483502232059799</v>
+      </c>
+      <c r="E5" s="6">
+        <v>3.0039374689086702E-2</v>
+      </c>
+      <c r="F5" s="6">
+        <v>8.3996188890882797E-2</v>
+      </c>
+      <c r="G5" s="6">
+        <v>2.2051261641869099E-2</v>
+      </c>
+      <c r="H5" s="6">
+        <v>5.3876463160478102E-2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0.44242083929020898</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="8">
+        <v>3.9320712075634701E-2</v>
+      </c>
+      <c r="D6" s="8">
+        <v>8.1646489342246706E-2</v>
+      </c>
+      <c r="E6" s="8">
+        <v>2.73970238343017E-2</v>
+      </c>
+      <c r="F6" s="8">
+        <v>4.74395871948914E-2</v>
+      </c>
+      <c r="G6" s="8">
+        <v>2.3057748025640298E-2</v>
+      </c>
+      <c r="H6" s="8">
+        <v>3.6975167938994698E-2</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0.48745753412098097</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0.106041930724568</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.39140598292228101</v>
+      </c>
+      <c r="E10" s="10">
+        <v>5.0167847101934303E-2</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.17951553340401299</v>
+      </c>
+      <c r="G10" s="10">
+        <v>3.2065435285529E-2</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0.111470189049531</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0.45705673203525299</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="10">
+        <v>5.2084772486138999E-2</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0.19496704538422599</v>
+      </c>
+      <c r="E11" s="10">
+        <v>3.0043576345382999E-2</v>
+      </c>
+      <c r="F11" s="10">
+        <v>8.4061609502727994E-2</v>
+      </c>
+      <c r="G11" s="10">
+        <v>2.20540532513737E-2</v>
+      </c>
+      <c r="H11" s="10">
+        <v>5.3904867975545702E-2</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0.44235672441740098</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <v>3</v>
+      </c>
+      <c r="C12" s="12">
+        <v>3.9320712075634701E-2</v>
+      </c>
+      <c r="D12" s="12">
+        <v>8.17097356430984E-2</v>
+      </c>
+      <c r="E12" s="12">
+        <v>2.7402094369051E-2</v>
+      </c>
+      <c r="F12" s="12">
+        <v>4.7461930234599901E-2</v>
+      </c>
+      <c r="G12" s="12">
+        <v>2.3061233482705199E-2</v>
+      </c>
+      <c r="H12" s="12">
+        <v>3.6987001524490297E-2</v>
+      </c>
+      <c r="I12" s="13">
+        <v>0.48739573395174801</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="10">
+        <f>(C10-C4)/C4*100</f>
+        <v>3.2208479311476954E-2</v>
+      </c>
+      <c r="D16" s="10">
+        <f t="shared" ref="D16:I16" si="0">(D10-D4)/D4*100</f>
+        <v>3.9270715357872188E-2</v>
+      </c>
+      <c r="E16" s="10">
+        <f t="shared" si="0"/>
+        <v>1.5053443392063463E-2</v>
+      </c>
+      <c r="F16" s="10">
+        <f t="shared" si="0"/>
+        <v>4.7242542605553842E-2</v>
+      </c>
+      <c r="G16" s="10">
+        <f t="shared" si="0"/>
+        <v>1.0924247893485358E-2</v>
+      </c>
+      <c r="H16" s="10">
+        <f t="shared" si="0"/>
+        <v>3.915354434977239E-2</v>
+      </c>
+      <c r="I16" s="11">
+        <f t="shared" si="0"/>
+        <v>-2.0594948800246527E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="10">
+        <f t="shared" ref="C17:I18" si="1">(C11-C5)/C5*100</f>
+        <v>2.1177316004468663E-2</v>
+      </c>
+      <c r="D17" s="10">
+        <f t="shared" si="1"/>
+        <v>6.7761464060993482E-2</v>
+      </c>
+      <c r="E17" s="10">
+        <f t="shared" si="1"/>
+        <v>1.3987162981204913E-2</v>
+      </c>
+      <c r="F17" s="10">
+        <f t="shared" si="1"/>
+        <v>7.7885214447267676E-2</v>
+      </c>
+      <c r="G17" s="10">
+        <f t="shared" si="1"/>
+        <v>1.2659636214651228E-2</v>
+      </c>
+      <c r="H17" s="10">
+        <f t="shared" si="1"/>
+        <v>5.2722122799694536E-2</v>
+      </c>
+      <c r="I17" s="11">
+        <f t="shared" si="1"/>
+        <v>-1.4491829297837383E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="2">
+        <v>3</v>
+      </c>
+      <c r="C18" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="12">
+        <f t="shared" si="1"/>
+        <v>7.7463588895509167E-2</v>
+      </c>
+      <c r="E18" s="12">
+        <f t="shared" si="1"/>
+        <v>1.8507611556520059E-2</v>
+      </c>
+      <c r="F18" s="12">
+        <f t="shared" si="1"/>
+        <v>4.7097879702687369E-2</v>
+      </c>
+      <c r="G18" s="12">
+        <f t="shared" si="1"/>
+        <v>1.5116207623680177E-2</v>
+      </c>
+      <c r="H18" s="12">
+        <f t="shared" si="1"/>
+        <v>3.2004142658995982E-2</v>
+      </c>
+      <c r="I18" s="13">
+        <f t="shared" si="1"/>
+        <v>-1.2678062170975427E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ABA0332-8176-4B1B-9E19-2F99875FC4E4}">
+  <dimension ref="A2:J18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="10" width="11.5546875" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.10600778722835</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.39125233533134202</v>
+      </c>
+      <c r="E4" s="6">
+        <v>5.0160296250132998E-2</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.179430765748057</v>
+      </c>
+      <c r="G4" s="6">
+        <v>3.2061932760514798E-2</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0.111426561601317</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.45715088202534598</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6">
+        <v>5.2073744664676E-2</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.19483502232059799</v>
+      </c>
+      <c r="E5" s="6">
+        <v>3.0039374689086702E-2</v>
+      </c>
+      <c r="F5" s="6">
+        <v>8.3996188890882797E-2</v>
+      </c>
+      <c r="G5" s="6">
+        <v>2.2051261641869099E-2</v>
+      </c>
+      <c r="H5" s="6">
+        <v>5.3876463160478102E-2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0.44242083929020898</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="8">
+        <v>3.9320712075634701E-2</v>
+      </c>
+      <c r="D6" s="8">
+        <v>8.1646489342246706E-2</v>
+      </c>
+      <c r="E6" s="8">
+        <v>2.73970238343017E-2</v>
+      </c>
+      <c r="F6" s="8">
+        <v>4.74395871948914E-2</v>
+      </c>
+      <c r="G6" s="8">
+        <v>2.3057748025640298E-2</v>
+      </c>
+      <c r="H6" s="8">
+        <v>3.6975167938994698E-2</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0.48745753412098097</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0.106063243977999</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.39149131869038301</v>
+      </c>
+      <c r="E10" s="10">
+        <v>5.0169750790763801E-2</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.17953688484680499</v>
+      </c>
+      <c r="G10" s="10">
+        <v>3.2066317617996602E-2</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0.111481182428614</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0.45703303955885499</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="10">
+        <v>5.2084772486138999E-2</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0.195022005325934</v>
+      </c>
+      <c r="E11" s="10">
+        <v>3.0044636448136101E-2</v>
+      </c>
+      <c r="F11" s="10">
+        <v>8.4078108052765096E-2</v>
+      </c>
+      <c r="G11" s="10">
+        <v>2.2054757316471201E-2</v>
+      </c>
+      <c r="H11" s="10">
+        <v>5.3912038653762602E-2</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0.44234060168689399</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <v>3</v>
+      </c>
+      <c r="C12" s="12">
+        <v>3.9320712075634701E-2</v>
+      </c>
+      <c r="D12" s="12">
+        <v>8.1741378031428696E-2</v>
+      </c>
+      <c r="E12" s="12">
+        <v>2.74033703906892E-2</v>
+      </c>
+      <c r="F12" s="12">
+        <v>4.7467567540188702E-2</v>
+      </c>
+      <c r="G12" s="12">
+        <v>2.3062112825977699E-2</v>
+      </c>
+      <c r="H12" s="12">
+        <v>3.6989987033390098E-2</v>
+      </c>
+      <c r="I12" s="13">
+        <v>0.48738024338376601</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="10">
+        <f>(C10-C4)/C4*100</f>
+        <v>5.2313845141910439E-2</v>
+      </c>
+      <c r="D16" s="10">
+        <f t="shared" ref="D16:I16" si="0">(D10-D4)/D4*100</f>
+        <v>6.1081644110469124E-2</v>
+      </c>
+      <c r="E16" s="10">
+        <f t="shared" si="0"/>
+        <v>1.8848653890830964E-2</v>
+      </c>
+      <c r="F16" s="10">
+        <f t="shared" si="0"/>
+        <v>5.9142086534369462E-2</v>
+      </c>
+      <c r="G16" s="10">
+        <f t="shared" si="0"/>
+        <v>1.3676210709305801E-2</v>
+      </c>
+      <c r="H16" s="10">
+        <f t="shared" si="0"/>
+        <v>4.9019575325704411E-2</v>
+      </c>
+      <c r="I16" s="11">
+        <f t="shared" si="0"/>
+        <v>-2.5777587034045802E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="10">
+        <f t="shared" ref="C17:I18" si="1">(C11-C5)/C5*100</f>
+        <v>2.1177316004468663E-2</v>
+      </c>
+      <c r="D17" s="10">
+        <f t="shared" si="1"/>
+        <v>9.5969915012678514E-2</v>
+      </c>
+      <c r="E17" s="10">
+        <f t="shared" si="1"/>
+        <v>1.7516206991188735E-2</v>
+      </c>
+      <c r="F17" s="10">
+        <f t="shared" si="1"/>
+        <v>9.7527236609172785E-2</v>
+      </c>
+      <c r="G17" s="10">
+        <f t="shared" si="1"/>
+        <v>1.5852492518909862E-2</v>
+      </c>
+      <c r="H17" s="10">
+        <f t="shared" si="1"/>
+        <v>6.6031604893092705E-2</v>
+      </c>
+      <c r="I17" s="11">
+        <f t="shared" si="1"/>
+        <v>-1.8136036142357138E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="2">
+        <v>3</v>
+      </c>
+      <c r="C18" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="12">
+        <f t="shared" si="1"/>
+        <v>0.11621894578251252</v>
+      </c>
+      <c r="E18" s="12">
+        <f t="shared" si="1"/>
+        <v>2.3165130730562651E-2</v>
+      </c>
+      <c r="F18" s="12">
+        <f t="shared" si="1"/>
+        <v>5.8981005004012002E-2</v>
+      </c>
+      <c r="G18" s="12">
+        <f t="shared" si="1"/>
+        <v>1.8929863976944336E-2</v>
+      </c>
+      <c r="H18" s="12">
+        <f t="shared" si="1"/>
+        <v>4.0078504632759152E-2</v>
+      </c>
+      <c r="I18" s="13">
+        <f t="shared" si="1"/>
+        <v>-1.5855891396640259E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2091F071-F29B-454F-BF59-BE52CAE833EC}">
+  <dimension ref="A2:J18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="10" width="11.5546875" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.10600778722835</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.39125233533134202</v>
+      </c>
+      <c r="E4" s="6">
+        <v>5.0160296250132998E-2</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.179430765748057</v>
+      </c>
+      <c r="G4" s="6">
+        <v>3.2061932760514798E-2</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0.111426561601317</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.45715088202534598</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6">
+        <v>5.2073744664676E-2</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.19483502232059799</v>
+      </c>
+      <c r="E5" s="6">
+        <v>3.0039374689086702E-2</v>
+      </c>
+      <c r="F5" s="6">
+        <v>8.3996188890882797E-2</v>
+      </c>
+      <c r="G5" s="6">
+        <v>2.2051261641869099E-2</v>
+      </c>
+      <c r="H5" s="6">
+        <v>5.3876463160478102E-2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0.44242083929020898</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="8">
+        <v>3.9320712075634701E-2</v>
+      </c>
+      <c r="D6" s="8">
+        <v>8.1646489342246706E-2</v>
+      </c>
+      <c r="E6" s="8">
+        <v>2.73970238343017E-2</v>
+      </c>
+      <c r="F6" s="8">
+        <v>4.74395871948914E-2</v>
+      </c>
+      <c r="G6" s="8">
+        <v>2.3057748025640298E-2</v>
+      </c>
+      <c r="H6" s="8">
+        <v>3.6975167938994698E-2</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0.48745753412098097</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0.106114399696769</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.39172170938212503</v>
+      </c>
+      <c r="E10" s="10">
+        <v>5.0179351618252703E-2</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.179644521259927</v>
+      </c>
+      <c r="G10" s="10">
+        <v>3.2070765832804098E-2</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0.11153660357124701</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0.45691381137142401</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="10">
+        <v>5.2084772486138999E-2</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0.19523092594175301</v>
+      </c>
+      <c r="E11" s="10">
+        <v>3.0049962156438698E-2</v>
+      </c>
+      <c r="F11" s="10">
+        <v>8.4161168368885E-2</v>
+      </c>
+      <c r="G11" s="10">
+        <v>2.2058298388598699E-2</v>
+      </c>
+      <c r="H11" s="10">
+        <v>5.39481461280737E-2</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0.44225946211663603</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <v>3</v>
+      </c>
+      <c r="C12" s="12">
+        <v>3.9320712075634701E-2</v>
+      </c>
+      <c r="D12" s="12">
+        <v>8.1804802250239006E-2</v>
+      </c>
+      <c r="E12" s="12">
+        <v>2.7409792617281999E-2</v>
+      </c>
+      <c r="F12" s="12">
+        <v>4.7496010688079397E-2</v>
+      </c>
+      <c r="G12" s="12">
+        <v>2.3066551795200198E-2</v>
+      </c>
+      <c r="H12" s="12">
+        <v>3.7005052839815401E-2</v>
+      </c>
+      <c r="I12" s="13">
+        <v>0.487302329588787</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="10">
+        <f>(C10-C4)/C4*100</f>
+        <v>0.10057041204845775</v>
+      </c>
+      <c r="D16" s="10">
+        <f t="shared" ref="D16:I16" si="0">(D10-D4)/D4*100</f>
+        <v>0.11996709243550199</v>
+      </c>
+      <c r="E16" s="10">
+        <f t="shared" si="0"/>
+        <v>3.7988946525918478E-2</v>
+      </c>
+      <c r="F16" s="10">
+        <f t="shared" si="0"/>
+        <v>0.11912979971904034</v>
+      </c>
+      <c r="G16" s="10">
+        <f t="shared" si="0"/>
+        <v>2.7550030608814353E-2</v>
+      </c>
+      <c r="H16" s="10">
+        <f t="shared" si="0"/>
+        <v>9.8757395318121305E-2</v>
+      </c>
+      <c r="I16" s="11">
+        <f t="shared" si="0"/>
+        <v>-5.1858295202596591E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="10">
+        <f t="shared" ref="C17:I18" si="1">(C11-C5)/C5*100</f>
+        <v>2.1177316004468663E-2</v>
+      </c>
+      <c r="D17" s="10">
+        <f t="shared" si="1"/>
+        <v>0.20319941273369532</v>
+      </c>
+      <c r="E17" s="10">
+        <f t="shared" si="1"/>
+        <v>3.5245298750653443E-2</v>
+      </c>
+      <c r="F17" s="10">
+        <f t="shared" si="1"/>
+        <v>0.19641305180705679</v>
+      </c>
+      <c r="G17" s="10">
+        <f t="shared" si="1"/>
+        <v>3.1910857727248748E-2</v>
+      </c>
+      <c r="H17" s="10">
+        <f t="shared" si="1"/>
+        <v>0.1330506187499359</v>
+      </c>
+      <c r="I17" s="11">
+        <f t="shared" si="1"/>
+        <v>-3.6475943093425452E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="2">
+        <v>3</v>
+      </c>
+      <c r="C18" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="12">
+        <f t="shared" si="1"/>
+        <v>0.19390044724235753</v>
+      </c>
+      <c r="E18" s="12">
+        <f t="shared" si="1"/>
+        <v>4.6606460094076541E-2</v>
+      </c>
+      <c r="F18" s="12">
+        <f t="shared" si="1"/>
+        <v>0.11893757202439004</v>
+      </c>
+      <c r="G18" s="12">
+        <f t="shared" si="1"/>
+        <v>3.8181393734159519E-2</v>
+      </c>
+      <c r="H18" s="12">
+        <f t="shared" si="1"/>
+        <v>8.0824246342871747E-2</v>
+      </c>
+      <c r="I18" s="13">
+        <f t="shared" si="1"/>
+        <v>-3.1839600648259872E-2</v>
       </c>
     </row>
   </sheetData>
